--- a/REUSE_RECYCLE_프로그램목록표.xlsx
+++ b/REUSE_RECYCLE_프로그램목록표.xlsx
@@ -325,7 +325,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOCUMENT_02</t>
+    <t>REC_PJ_C01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,28 +891,52 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,30 +945,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,28 +954,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,34 +1011,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,26 +1385,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="57" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="65" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="46" t="s">
@@ -1413,119 +1413,119 @@
       <c r="L1" s="48">
         <v>45316</v>
       </c>
-      <c r="M1" s="49"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="72"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="47"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="32" t="s">
         <v>74</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="60">
         <v>1</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="47"/>
-      <c r="J4" s="51"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="47"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="77"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="21" t="s">
         <v>7</v>
       </c>
@@ -1546,22 +1546,22 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="81" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="22" t="s">
         <v>28</v>
       </c>
@@ -1573,16 +1573,16 @@
       <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1594,16 +1594,16 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1615,14 +1615,14 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="6" t="s">
         <v>36</v>
       </c>
@@ -1634,14 +1634,14 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1672,14 +1672,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1710,14 +1710,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1729,14 +1729,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1748,14 +1748,14 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
@@ -1767,14 +1767,14 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="6" t="s">
         <v>71</v>
       </c>
@@ -1786,14 +1786,14 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="25" t="s">
         <v>45</v>
       </c>
@@ -1805,22 +1805,22 @@
       <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="79" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="15" t="s">
         <v>28</v>
       </c>
@@ -1832,14 +1832,14 @@
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="6" t="s">
         <v>36</v>
       </c>
@@ -1851,14 +1851,14 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="9" t="s">
         <v>53</v>
       </c>
@@ -1870,22 +1870,22 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="81" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="22" t="s">
         <v>59</v>
       </c>
@@ -1897,14 +1897,14 @@
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="18" t="s">
         <v>53</v>
       </c>
@@ -1916,22 +1916,22 @@
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="79" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="15" t="s">
         <v>35</v>
       </c>
@@ -1943,16 +1943,16 @@
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="37"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="6" t="s">
         <v>35</v>
       </c>
@@ -1964,14 +1964,14 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="37"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="6" t="s">
         <v>36</v>
       </c>
@@ -1983,14 +1983,14 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="6" t="s">
         <v>36</v>
       </c>
@@ -2002,14 +2002,14 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="18" t="s">
         <v>41</v>
       </c>
@@ -2025,8 +2025,8 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="13"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -2040,8 +2040,8 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="13"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -2055,8 +2055,8 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="13"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -2070,8 +2070,8 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="13"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
@@ -2085,8 +2085,8 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="13"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -2100,8 +2100,8 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="13"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -2115,8 +2115,8 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="13"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -2130,8 +2130,8 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="13"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2145,8 +2145,8 @@
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -2160,8 +2160,8 @@
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -2175,8 +2175,8 @@
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2190,8 +2190,8 @@
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="13"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2959,16 +2959,50 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="70">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="K1:K2"/>
@@ -2985,50 +3019,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
